--- a/medicine/Pharmacie/Classe_ATC_D02/Classe_ATC_D02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_D02/Classe_ATC_D02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D02, dénommée « Émollients et protecteurs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D02, dénommée « Émollients et protecteurs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,21 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">D02AA Médicaments à base de silicone
-Vide
-D02AB Médicaments à base de zinc
-Vide
-D02AC Paraffine et produits gras
-Vide
-D02AD Emplâtres liquides
-Vide
-D02AE Médicaments à base d'urée
-D02AE01 Urée
-D02AE51 Urée, associations
-D02AF Préparations à base d'acide salicylique
-Vide
-D02AX Autres émollients et protecteurs
-Vide
+          <t>D02AA Médicaments à base de silicone</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
 </t>
         </is>
       </c>
@@ -553,16 +557,277 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>D02A Emollients et Protecteurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D02AB Médicaments à base de zinc</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D02A Emollients et Protecteurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D02AC Paraffine et produits gras</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D02A Emollients et Protecteurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D02AD Emplâtres liquides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D02A Emollients et Protecteurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D02AE Médicaments à base d'urée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D02AE01 Urée
+D02AE51 Urée, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D02A Emollients et Protecteurs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D02AF Préparations à base d'acide salicylique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D02A Emollients et Protecteurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D02AX Autres émollients et protecteurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>D02B Protecteurs contre les rayonnements UV</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D02BA Protecteurs contre les rayonnements à usage topique
-D02BA01 Acide aminobenzoïque
-D02BA02 Octinoxate
-D02BB Protecteurs contre les rayonnements à usage systémique
-D02BB01 Bétacarotène
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D02BA Protecteurs contre les rayonnements à usage topique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D02BA01 Acide aminobenzoïque
+D02BA02 Octinoxate</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D02B Protecteurs contre les rayonnements UV</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D02BB Protecteurs contre les rayonnements à usage systémique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>D02BB01 Bétacarotène
 D02BB02 Afamélanotide (en)</t>
         </is>
       </c>
